--- a/SWP/Week2/Docs/SWP_OnLineLearning_WeeklyReport_W2.xlsx
+++ b/SWP/Week2/Docs/SWP_OnLineLearning_WeeklyReport_W2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="112">
   <si>
     <t>Total Project Tracking</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Phan Tiến Mạnh - HE170244</t>
   </si>
   <si>
-    <t>Ngô Quang Bá - HE161232</t>
+    <t>Phan Nguyễn Tú Anh - HE163972</t>
   </si>
   <si>
     <t>#</t>
@@ -56,13 +56,13 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>Home page</t>
+    <t>Post Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Public </t>
+    <t>Public</t>
   </si>
   <si>
-    <t>Show sliders, hot posts, featured services + the sider with the latest posts, static contacts/links</t>
+    <t>Show post details (including title, author, updated date, category, and post details) + the sider with the post search box, posts categories, latest posts, static contacts/links</t>
   </si>
   <si>
     <t>ManhPTHE170244</t>
@@ -77,16 +77,149 @@
     <t>none</t>
   </si>
   <si>
-    <t>Service Details</t>
+    <t>Home</t>
   </si>
   <si>
-    <t>Public</t>
+    <r>
+      <t xml:space="preserve">Show sliders, hot posts, featured subjects + the sider with the latest posts, static contacts/links </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">- Shown slider information includes its image and title; the user is redirected to the slider's backlink on his/her clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">- Shown post information includes its thumbnail, title, post date; the user is redirected to the post's details on his/her clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>- Shown subject information includes its thumbnail, title, tag line; the user is redirected to the subjectt's details on his/her clicking</t>
+    </r>
   </si>
   <si>
-    <t>Show detailed service information (thumbnail, category, title, brief information, attached images, description, number of person, list price, sale price, flag to turn the featurning on/off, status), from that allow the user to input, view or edit them</t>
+    <t>AnhPNTHE163972</t>
   </si>
   <si>
-    <t>BaNQHE161232</t>
+    <t>Courses List</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Show the subjects paginatedly (sorted by updated date, paginated) + the sider with the subject search box, subject categories, featured subjects, and static contacts/links; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">- Shown subject information includes its thumbnail, title, tag line, lowest price package option (list price, sale price); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>- The user is redirected to the subject's details on his/her clicking on the subject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>- The user can choose to register to the subject by clicking the Register button</t>
+    </r>
+  </si>
+  <si>
+    <t>Posts List</t>
+  </si>
+  <si>
+    <t>Show the posts paginatedly (sorted by updated date) + the sider with the post search box, posts categories, latest posts, static contacts/links; Shown post information includes its thumbnail, title, category, brief-info; the user is redirected to the post's details on his/her clicking</t>
+  </si>
+  <si>
+    <t>Chu Quý Sơn - HE170808</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nguyễn Thị Ngọc Linh -  HE171088</t>
   </si>
   <si>
     <t>User Login</t>
@@ -95,28 +228,25 @@
     <t>Common</t>
   </si>
   <si>
-    <t>This is a pop-up screen which allows the user to enter email &amp; password to login; on this page, there are also options for user to register new information or reset the password for the case s/he forget it</t>
+    <t>This is a pop-up screen which allows the user to enter email &amp; password to login; on this page, there are also links for user to register new information or reset the password for the case s/he forget it</t>
   </si>
   <si>
-    <t xml:space="preserve">Reservation Details </t>
+    <t>SonCQHE170808</t>
   </si>
   <si>
-    <t>Show the cart details with list of the user's chosen services (including Id, title, price, quantity, the number of person, total cost) and the total reservation price + the sider with the service search box, service categories, static contacts/links; The user can
-- Change the quantity of each service: the total cost is automatically adjusted
-- Change the number of person taking part in a service: the total cost is automatically adjusted
-- Choose to delete/remove service by clicking on the deleting icon
-- Click the Choose More Service button to go to Services List page
-- Click the Check Out button to go to the Reservation Contact page
-Please notes: the user's chosen services from the last browsing session are remained in his/her reservation until s/he submit the cart. However, the service prices are updated with the latest prices in the system</t>
+    <t>User Profile</t>
   </si>
   <si>
-    <t>User Authorization</t>
+    <t>This is a pop-up screen which allows the user to edit his/her profile information, including the registered ones &amp; the avatar image. Please note that s/he is not allowed to change the email</t>
   </si>
   <si>
-    <t>Implementation of authorization mechanism in the system, including the specify the role of logged-in user, his/her authorized page links (building the displayed menu items (in the front end) and preventing unauthorized access via enter the links directly)</t>
+    <t>LinhNTNHE171088</t>
   </si>
   <si>
-    <t>iter2</t>
+    <t>User Register</t>
+  </si>
+  <si>
+    <t>This is a pop-up screen which allows the user to register himself/herself to the system by inputing following information: full name, gender, email, mobile; User then need to verify by clicking the link sent via email to him/her before being able to access the system</t>
   </si>
   <si>
     <t>Change Password</t>
@@ -125,259 +255,62 @@
     <t>This is a pop-up screen which allows the user to change his/her password by inputting his current password as well as new password (twice)</t>
   </si>
   <si>
-    <t>Sliders List</t>
+    <t>Võ Quốc Anh -  HE153742</t>
   </si>
   <si>
-    <t>Manager</t>
+    <t>Reset Password</t>
   </si>
   <si>
-    <t>Show the paginated list of sliders (including sliders' id, title, image, backlink, status)
-- The user can filter the sliders by the status + search by title or backlink
-- For each slider, the user can choose to hide, show, edit it</t>
+    <r>
+      <t>The user to input his/her email to receive the reset password link. This link is sent to the user's email for his/her password resetting.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>- On clicking the link, the user is redirected to the password resetting page in which s/he input new password (twice) for the system access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>- Note that the link is only available for a specific time duration as configured in the system config file.</t>
+    </r>
   </si>
   <si>
-    <t>Posts List</t>
+    <t>AnhVQHE153742</t>
   </si>
   <si>
-    <t>Show the paginated list of posts (include posts' id, thumbnail, title, category, author, featured, and status information):
-- The user can filter the post by category, author, status or search by title
-- Sortable by title, category, author, featured, or status
-- From each post, the user can choose to hide, show, view, edit it
-- The page also have the button/link that allows the user to add new post</t>
+    <t>User Authorization</t>
   </si>
   <si>
-    <t>Customer Details</t>
-  </si>
-  <si>
-    <t>Show the list of customers / contacts paginatedly (include contacts' id, full name, gender, email, mobile, status):
-- The user can filter the customers by status + search by full name, email, mobile
-- Sortable by full name, email, mobile, status
-- From each customer, the user can choose to add new, view or edit it</t>
-  </si>
-  <si>
-    <t>Medical examination</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>Show the history of examination including the date, used services, medical prescription
-Doctor can add new medical prescription; view existing medical prescription
-User can filter by service, date, medicine name</t>
-  </si>
-  <si>
-    <t>iter3</t>
-  </si>
-  <si>
-    <t>Reservations List</t>
-  </si>
-  <si>
-    <t>Show the list of reservations paginatedly
-- The list can be shorted by the reservation date, customer name, total cost, status
-- Each reservation include below information: id, reserved date, customer name,service (service name &amp; number of person), total cost, status;
-- Allow the users to filter the reservation by the reservation date (from, to), status, staff
-- Allow the user to search the reservations by reservation id, customer name
-- On clicking the link under the reservation id, user would be redirected to the Reservation Details page</t>
-  </si>
-  <si>
-    <t>Setting Details</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Show detailed user information (type, name, value, description, status), from that allow the user to add new, view or edit setting information</t>
-  </si>
-  <si>
-    <t>User Details</t>
-  </si>
-  <si>
-    <t>Show detailed user information (avatar, full name, gender, email, mobile, role, address, status), from that allow the user to add new, view or edit user information
-- After adding, new generated login password would be email to the new user
-- The admin can only edit/update the role and status of the user</t>
-  </si>
-  <si>
-    <t>iter4</t>
-  </si>
-  <si>
-    <t>Đinh Quang Công - HE160695</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Tùng - HE161278</t>
-  </si>
-  <si>
-    <t>Service List</t>
-  </si>
-  <si>
-    <t>Show the paginated list of services (include services' id, thumbnail, title, category, list price, sale price, featured, and status information):
-- The user can filter the service by status or search by title, brief info
-- Sortable by title, category, list price, sale price, featured, or status
-- From each service, the user can choose to hide, show, view, edit it
-- The page also have the button/link that allows the user to add new service</t>
-  </si>
-  <si>
-    <t>CongDQHE160695</t>
-  </si>
-  <si>
-    <t>Blog Details</t>
-  </si>
-  <si>
-    <t>Show post details (including title, author, updated date, category, and post details) + the sider with the post search box, posts categories, static contacts/links</t>
-  </si>
-  <si>
-    <t>TungNTHE161278</t>
-  </si>
-  <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After the end of medical examination, the receiver would receive a confirmation email with the guides to feedback on each of the received service; Beside, the user/receive could also give the feedback (on a specific service or general feedback) via the website; The user also call this screen from the system menu on the header;
-The feedback information includes contact information (full name, gender, email, mobile), rated star, the attached images and the contact's free-format feedback
-The page sider is also shown with the service search box, service categories, static contacts/links; </t>
-  </si>
-  <si>
-    <t>Reservation Contact</t>
-  </si>
-  <si>
-    <t>Show the list of user chosen service (including id, title, price, quantity, total cost), the total reservation price and the receiver information (including full-name, gender, email, mobile, address, notes) for user to edit/input + the sider with the service search box, service categories, static contacts/links
-- In case the user has logged in, the receiver information would be filled with the user's information
-- The user can click the Change button to come back to the Reservation Details page for changing the choosing servicds, click the Submit button to submit the reservation before redirecting user to the Reservation Completion or Error page (due to technical error or the time is out of the slot)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reset Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user input his/her email to receive the reset password link. This link is sent to the user's email for his/her password resetting.
-- On clicking the link, the user is redirected to the password resetting page in which s/he input new password (twice) for the system access
-- Note that the link is only available for a specific time duration as configured in the system config file. </t>
-  </si>
-  <si>
-    <t>User Profile</t>
-  </si>
-  <si>
-    <t>This is a pop-up screen which allows the user to edit his/her profile information, including the registered ones &amp; the avatar image. Please note that s/he is not allowed to change the email</t>
-  </si>
-  <si>
-    <t>Reservation Information</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Show the reservation details, including the information as below + the sider with the post search box, posts categories, static contacts/links
-- The reservation id, reservation date, time to check up, total cost, status
-- The receiver information: full name, gender, email, mobile
-- This list of reserved services, each service include following information &amp; the links/buttons that allow the user to re-reserve or feedback: thumbnail, name, service, unit price, number of person, total cost
-For the submitted reservation, the user can choose to update (redirect the user to the Reservation Details page for that) or cancel the reservation</t>
-  </si>
-  <si>
-    <t>Post Details</t>
-  </si>
-  <si>
-    <t>Show detailed post information (thumbnail, category, title, brief information,  description, flag to turn the featurning on/off, status), from that allow the user to input, view or edit them</t>
-  </si>
-  <si>
-    <t>Services List</t>
-  </si>
-  <si>
-    <t>Customers List</t>
-  </si>
-  <si>
-    <t>Feedback Details</t>
-  </si>
-  <si>
-    <t>Show the feedback details (contact full name, email, mobile, service, rated star, feedback, images status) from that allow the user to change its status</t>
-  </si>
-  <si>
-    <t>Rerservation Details</t>
-  </si>
-  <si>
-    <t>Show the reservation details, including the following information: 
-- Basic reservation information: reservation id, customer full name, email, mobile, reservation date, total cost, sale name, status
-- The receiver information: full name, gendar, email, mobile, address
-- This list of reserved services, each service include following information: thumbnail, name, category, unit price, number of person, total cost
-Manager can change the reservation status 
-Manager can assign the reservation to other staffs</t>
-  </si>
-  <si>
-    <t>Users List</t>
-  </si>
-  <si>
-    <t>Show the paginated list of registered users (include users' id, full name, gender, email, mobile, role, status):
-- The admin can filter the users by gender, role, status
-- Allow the admin to seach users by full name, email, mobile
-- The list is sortable by id, fullname, gender, email, mobile, role, status
-- From each user, the admin can choose to view or edit it
-- The page also have the button/link that allows the admin to add new user</t>
-  </si>
-  <si>
-    <t>Settings List</t>
-  </si>
-  <si>
-    <t>Show the paginated list of settings (include settings' id, type, name, value, status):
-- The admin can filter the setting by type, status
-- Allow the admin to seach settings by name, value
-- The list is sortable by id, type, name, value, status
-- From each setting, the admin can choose to view or edit it
-- The page also have the button/link that allows the admin to add new setting</t>
-  </si>
-  <si>
-    <t>Đoàn Đắc Hậu - HE160776</t>
-  </si>
-  <si>
-    <t>Blog List</t>
-  </si>
-  <si>
-    <t>Show the posts paginatedly (sorted by updated date, paginated) + the sider with the post search box, posts categories, static contacts/links; Shown post information includes its thumbnail, title, brief-info; the user is redirected to the post's details on his/her clicking</t>
-  </si>
-  <si>
-    <t>HauDDHE160776</t>
-  </si>
-  <si>
-    <t>Reservation Completion</t>
-  </si>
-  <si>
-    <t>This page show the cart completion notes + the sider with the service search box, service categories, static contacts/links; Before this page is shown:
-- The reservation status is changed to submitted; 
-- The service's available quantities are updated accordingly
-- The submitted reservation is assigned automatically to the active nurse, doctor rotatedly or the doctor &amp; nurse are chosen by customers
-- If the receiver information (name, email, mobile, gender) is new or changed (checking via the email, the latest receiver information is stored in the system as latest &amp; historical system contact information (for the marketing's reference later)
-- The customer/user would be received the reservation confirmation &amp; payment guides via his/her email. Those information is shown on the page also. The payment information (banking account,...) are taken from the system configuration file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Register </t>
-  </si>
-  <si>
-    <t>This is a pop-up screen which allows the user to register himself/herself to the system by inputing following information: full name, gender, email, mobile, and address; User then need to verify by clicking the link sent via email to him/her before being able to access the system</t>
-  </si>
-  <si>
-    <t>My reservations</t>
-  </si>
-  <si>
-    <t>Show the list of user's reservations paginatedly + the sider with the post search box, posts categories, static contacts/links
-- Each reservation include below information: id, reserved date, service (first service name &amp; number of persons), time to check up, total cost, status;
-- On clicking the link under the reservation id, user would be redirected to the Reservation Information page</t>
-  </si>
-  <si>
-    <t>Slider Details</t>
-  </si>
-  <si>
-    <t>Show detailed slider information (image, title, backlink, status, notes)</t>
-  </si>
-  <si>
-    <t>Feedbacks List</t>
-  </si>
-  <si>
-    <t>Show the list of feedbacks paginatedly (include feedbacks' contact full name, service name, rated star, status):
-- The user can filter the feedbacks by status, service, rated star + search by full name, feedback content
-- Sortable by full name, service name, rated star, status
-- From each feedback, the user can choose to view or change it's status</t>
-  </si>
-  <si>
-    <t>Admin Dashboard</t>
-  </si>
-  <si>
-    <t>Show statistics of new reservations (success, cancelled, submitted), revenues (total, by service categories), customers (newly registered, newly reserved), feedbacks (average star: total, by service) &amp; the trend of reservation counts (success, all) by day for the last 7 days (the start date &amp; end date can be adjustable)</t>
+    <t>Implementation of authorization mechanism in the system, including the specify the role of logged-in user, his/her authorized page links (building the displayed menu items (in the front end) and preventing unauthorized access via enter the links directly)</t>
   </si>
   <si>
     <t>STT</t>
@@ -596,13 +529,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,12 +622,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FF3C78D8"/>
       <name val="Arial"/>
@@ -710,7 +637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,25 +651,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,11 +674,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -785,14 +704,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -802,7 +713,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -810,7 +721,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,14 +736,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,8 +749,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,7 +799,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,19 +943,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,156 +979,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1202,6 +1129,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1212,6 +1169,36 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1334,6 +1321,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1349,21 +1345,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1375,15 +1356,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1412,13 +1384,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,16 +1407,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1452,134 +1439,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1599,7 +1586,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1659,82 +1646,103 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2033,8 +2041,8 @@
   <sheetPr/>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -2050,7 +2058,7 @@
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="9.57407407407407" customWidth="1"/>
     <col min="13" max="13" width="42" customWidth="1"/>
-    <col min="14" max="14" width="16.712962962963" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="26" width="8.71296296296296" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2065,7 +2073,7 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
-      <c r="I1" s="51"/>
+      <c r="I1" s="58"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
@@ -2092,14 +2100,14 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
@@ -2118,22 +2126,22 @@
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="28"/>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:23">
       <c r="A4" s="29" t="s">
@@ -2160,7 +2168,7 @@
       <c r="H4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="50" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="30" t="s">
@@ -2184,7 +2192,7 @@
       <c r="Q4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="58"/>
+      <c r="R4" s="67"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
@@ -2198,49 +2206,49 @@
       <c r="B5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="38" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="32">
         <v>1</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="N5" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="58"/>
+      <c r="R5" s="67"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
@@ -2251,52 +2259,52 @@
       <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="38" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="32">
         <v>2</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="35" t="s">
+      <c r="K6" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="P6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="36" t="s">
+      <c r="Q6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="58"/>
+      <c r="R6" s="67"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
@@ -2307,52 +2315,24 @@
       <c r="A7" s="32">
         <v>3</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
       <c r="J7" s="32">
         <v>3</v>
       </c>
-      <c r="K7" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="58"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="67"/>
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
       <c r="U7" s="24"/>
@@ -2363,52 +2343,24 @@
       <c r="A8" s="32">
         <v>4</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
       <c r="J8" s="32">
         <v>4</v>
       </c>
-      <c r="K8" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="58"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="67"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
@@ -2419,52 +2371,24 @@
       <c r="A9" s="32">
         <v>5</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
       <c r="J9" s="32">
         <v>5</v>
       </c>
-      <c r="K9" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="58"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="67"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
@@ -2475,52 +2399,24 @@
       <c r="A10" s="32">
         <v>6</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
       <c r="J10" s="32">
         <v>6</v>
       </c>
-      <c r="K10" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="58"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="67"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
@@ -2531,52 +2427,24 @@
       <c r="A11" s="32">
         <v>7</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
       <c r="J11" s="32">
         <v>7</v>
       </c>
-      <c r="K11" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="58"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="67"/>
       <c r="S11" s="24"/>
       <c r="T11" s="24"/>
       <c r="U11" s="24"/>
@@ -2587,40 +2455,24 @@
       <c r="A12" s="32">
         <v>8</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
       <c r="J12" s="32">
         <v>8</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="58"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="67"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
       <c r="U12" s="24"/>
@@ -2628,43 +2480,27 @@
       <c r="W12" s="24"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:23">
-      <c r="A13" s="37">
+      <c r="A13" s="43">
         <v>9</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="37">
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="48"/>
+      <c r="J13" s="43">
         <v>9</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="58"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="67"/>
       <c r="S13" s="24"/>
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
@@ -2672,22 +2508,22 @@
       <c r="W13" s="24"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:23">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
@@ -2721,7 +2557,7 @@
     </row>
     <row r="16" ht="28.5" customHeight="1" spans="1:23">
       <c r="A16" s="26" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -2730,8 +2566,8 @@
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="J16" s="55" t="s">
-        <v>53</v>
+      <c r="J16" s="64" t="s">
+        <v>27</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
@@ -2748,7 +2584,7 @@
       <c r="W16" s="24"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:23">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -2772,7 +2608,7 @@
       <c r="H17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="50" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="30" t="s">
@@ -2796,7 +2632,7 @@
       <c r="Q17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="R17" s="58"/>
+      <c r="R17" s="67"/>
       <c r="S17" s="24"/>
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>
@@ -2807,52 +2643,52 @@
       <c r="A18" s="32">
         <v>1</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="35" t="s">
+      <c r="B18" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="38" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="32">
         <v>1</v>
       </c>
-      <c r="K18" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="35" t="s">
+      <c r="K18" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="35" t="s">
+      <c r="P18" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="36" t="s">
+      <c r="Q18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="58"/>
+      <c r="R18" s="67"/>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
@@ -2863,52 +2699,52 @@
       <c r="A19" s="32">
         <v>2</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="35" t="s">
+      <c r="B19" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="38" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="32">
         <v>2</v>
       </c>
-      <c r="K19" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="O19" s="35" t="s">
+      <c r="K19" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="35" t="s">
+      <c r="P19" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="36" t="s">
+      <c r="Q19" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="R19" s="58"/>
+      <c r="R19" s="67"/>
       <c r="S19" s="24"/>
       <c r="T19" s="24"/>
       <c r="U19" s="24"/>
@@ -2919,52 +2755,24 @@
       <c r="A20" s="32">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
       <c r="J20" s="32">
         <v>3</v>
       </c>
-      <c r="K20" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R20" s="58"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="67"/>
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
       <c r="U20" s="24"/>
@@ -2975,52 +2783,24 @@
       <c r="A21" s="32">
         <v>4</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
       <c r="J21" s="32">
         <v>4</v>
       </c>
-      <c r="K21" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="M21" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R21" s="58"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="67"/>
       <c r="S21" s="24"/>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
@@ -3031,52 +2811,24 @@
       <c r="A22" s="32">
         <v>5</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
       <c r="J22" s="32">
         <v>5</v>
       </c>
-      <c r="K22" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="O22" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R22" s="58"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="67"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
       <c r="U22" s="24"/>
@@ -3087,52 +2839,24 @@
       <c r="A23" s="32">
         <v>6</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
       <c r="J23" s="32">
         <v>6</v>
       </c>
-      <c r="K23" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="N23" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q23" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R23" s="58"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="67"/>
       <c r="S23" s="24"/>
       <c r="T23" s="24"/>
       <c r="U23" s="24"/>
@@ -3143,52 +2867,24 @@
       <c r="A24" s="32">
         <v>7</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
       <c r="J24" s="32">
         <v>7</v>
       </c>
-      <c r="K24" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="N24" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="O24" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R24" s="58"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
@@ -3199,40 +2895,24 @@
       <c r="A25" s="32">
         <v>8</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
       <c r="J25" s="32">
         <v>8</v>
       </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="O25" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R25" s="58"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="67"/>
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
       <c r="U25" s="24"/>
@@ -3240,43 +2920,27 @@
       <c r="W25" s="24"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:23">
-      <c r="A26" s="37">
+      <c r="A26" s="43">
         <v>9</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="37">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="48"/>
+      <c r="J26" s="43">
         <v>9</v>
       </c>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="O26" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q26" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="R26" s="58"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="67"/>
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
       <c r="U26" s="24"/>
@@ -3284,22 +2948,22 @@
       <c r="W26" s="24"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:23">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
       <c r="R27" s="24"/>
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
@@ -3333,7 +2997,7 @@
     </row>
     <row r="29" ht="17.25" customHeight="1" spans="1:23">
       <c r="A29" s="26" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -3358,7 +3022,7 @@
       <c r="W29" s="24"/>
     </row>
     <row r="30" ht="26.25" customHeight="1" spans="1:23">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="30" t="s">
@@ -3401,25 +3065,25 @@
       <c r="A31" s="32">
         <v>26</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="35" t="s">
+      <c r="B31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="38" t="s">
         <v>18</v>
       </c>
       <c r="J31" s="24"/>
@@ -3441,25 +3105,25 @@
       <c r="A32" s="32">
         <v>27</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="35" t="s">
+      <c r="B32" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="38" t="s">
         <v>18</v>
       </c>
       <c r="J32" s="24"/>
@@ -3481,27 +3145,13 @@
       <c r="A33" s="32">
         <v>28</v>
       </c>
-      <c r="B33" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B33" s="57"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
@@ -3521,27 +3171,13 @@
       <c r="A34" s="32">
         <v>29</v>
       </c>
-      <c r="B34" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -3561,27 +3197,13 @@
       <c r="A35" s="32">
         <v>5</v>
       </c>
-      <c r="B35" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
@@ -3601,27 +3223,13 @@
       <c r="A36" s="32">
         <v>6</v>
       </c>
-      <c r="B36" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -3641,27 +3249,13 @@
       <c r="A37" s="32">
         <v>7</v>
       </c>
-      <c r="B37" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B37" s="57"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
@@ -3681,21 +3275,13 @@
       <c r="A38" s="32">
         <v>8</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -3712,24 +3298,16 @@
       <c r="W38" s="24"/>
     </row>
     <row r="39" ht="27.75" customHeight="1" spans="1:23">
-      <c r="A39" s="37">
+      <c r="A39" s="43">
         <v>9</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>18</v>
-      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
@@ -3746,14 +3324,14 @@
       <c r="W39" s="24"/>
     </row>
     <row r="40" ht="14.25" customHeight="1" spans="1:23">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
@@ -8546,2287 +8124,2287 @@
       <c r="W239" s="24"/>
     </row>
     <row r="240" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I240" s="51"/>
+      <c r="I240" s="58"/>
     </row>
     <row r="241" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I241" s="51"/>
+      <c r="I241" s="58"/>
     </row>
     <row r="242" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I242" s="51"/>
+      <c r="I242" s="58"/>
     </row>
     <row r="243" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I243" s="51"/>
+      <c r="I243" s="58"/>
     </row>
     <row r="244" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I244" s="51"/>
+      <c r="I244" s="58"/>
     </row>
     <row r="245" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I245" s="51"/>
+      <c r="I245" s="58"/>
     </row>
     <row r="246" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I246" s="51"/>
+      <c r="I246" s="58"/>
     </row>
     <row r="247" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I247" s="51"/>
+      <c r="I247" s="58"/>
     </row>
     <row r="248" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I248" s="51"/>
+      <c r="I248" s="58"/>
     </row>
     <row r="249" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I249" s="51"/>
+      <c r="I249" s="58"/>
     </row>
     <row r="250" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I250" s="51"/>
+      <c r="I250" s="58"/>
     </row>
     <row r="251" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I251" s="51"/>
+      <c r="I251" s="58"/>
     </row>
     <row r="252" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I252" s="51"/>
+      <c r="I252" s="58"/>
     </row>
     <row r="253" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I253" s="51"/>
+      <c r="I253" s="58"/>
     </row>
     <row r="254" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I254" s="51"/>
+      <c r="I254" s="58"/>
     </row>
     <row r="255" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I255" s="51"/>
+      <c r="I255" s="58"/>
     </row>
     <row r="256" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I256" s="51"/>
+      <c r="I256" s="58"/>
     </row>
     <row r="257" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I257" s="51"/>
+      <c r="I257" s="58"/>
     </row>
     <row r="258" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I258" s="51"/>
+      <c r="I258" s="58"/>
     </row>
     <row r="259" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I259" s="51"/>
+      <c r="I259" s="58"/>
     </row>
     <row r="260" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I260" s="51"/>
+      <c r="I260" s="58"/>
     </row>
     <row r="261" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I261" s="51"/>
+      <c r="I261" s="58"/>
     </row>
     <row r="262" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I262" s="51"/>
+      <c r="I262" s="58"/>
     </row>
     <row r="263" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I263" s="51"/>
+      <c r="I263" s="58"/>
     </row>
     <row r="264" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I264" s="51"/>
+      <c r="I264" s="58"/>
     </row>
     <row r="265" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I265" s="51"/>
+      <c r="I265" s="58"/>
     </row>
     <row r="266" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I266" s="51"/>
+      <c r="I266" s="58"/>
     </row>
     <row r="267" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I267" s="51"/>
+      <c r="I267" s="58"/>
     </row>
     <row r="268" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I268" s="51"/>
+      <c r="I268" s="58"/>
     </row>
     <row r="269" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I269" s="51"/>
+      <c r="I269" s="58"/>
     </row>
     <row r="270" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I270" s="51"/>
+      <c r="I270" s="58"/>
     </row>
     <row r="271" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I271" s="51"/>
+      <c r="I271" s="58"/>
     </row>
     <row r="272" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I272" s="51"/>
+      <c r="I272" s="58"/>
     </row>
     <row r="273" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I273" s="51"/>
+      <c r="I273" s="58"/>
     </row>
     <row r="274" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I274" s="51"/>
+      <c r="I274" s="58"/>
     </row>
     <row r="275" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I275" s="51"/>
+      <c r="I275" s="58"/>
     </row>
     <row r="276" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I276" s="51"/>
+      <c r="I276" s="58"/>
     </row>
     <row r="277" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I277" s="51"/>
+      <c r="I277" s="58"/>
     </row>
     <row r="278" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I278" s="51"/>
+      <c r="I278" s="58"/>
     </row>
     <row r="279" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I279" s="51"/>
+      <c r="I279" s="58"/>
     </row>
     <row r="280" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I280" s="51"/>
+      <c r="I280" s="58"/>
     </row>
     <row r="281" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I281" s="51"/>
+      <c r="I281" s="58"/>
     </row>
     <row r="282" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I282" s="51"/>
+      <c r="I282" s="58"/>
     </row>
     <row r="283" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I283" s="51"/>
+      <c r="I283" s="58"/>
     </row>
     <row r="284" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I284" s="51"/>
+      <c r="I284" s="58"/>
     </row>
     <row r="285" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I285" s="51"/>
+      <c r="I285" s="58"/>
     </row>
     <row r="286" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I286" s="51"/>
+      <c r="I286" s="58"/>
     </row>
     <row r="287" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I287" s="51"/>
+      <c r="I287" s="58"/>
     </row>
     <row r="288" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I288" s="51"/>
+      <c r="I288" s="58"/>
     </row>
     <row r="289" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I289" s="51"/>
+      <c r="I289" s="58"/>
     </row>
     <row r="290" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I290" s="51"/>
+      <c r="I290" s="58"/>
     </row>
     <row r="291" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I291" s="51"/>
+      <c r="I291" s="58"/>
     </row>
     <row r="292" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I292" s="51"/>
+      <c r="I292" s="58"/>
     </row>
     <row r="293" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I293" s="51"/>
+      <c r="I293" s="58"/>
     </row>
     <row r="294" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I294" s="51"/>
+      <c r="I294" s="58"/>
     </row>
     <row r="295" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I295" s="51"/>
+      <c r="I295" s="58"/>
     </row>
     <row r="296" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I296" s="51"/>
+      <c r="I296" s="58"/>
     </row>
     <row r="297" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I297" s="51"/>
+      <c r="I297" s="58"/>
     </row>
     <row r="298" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I298" s="51"/>
+      <c r="I298" s="58"/>
     </row>
     <row r="299" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I299" s="51"/>
+      <c r="I299" s="58"/>
     </row>
     <row r="300" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I300" s="51"/>
+      <c r="I300" s="58"/>
     </row>
     <row r="301" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I301" s="51"/>
+      <c r="I301" s="58"/>
     </row>
     <row r="302" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I302" s="51"/>
+      <c r="I302" s="58"/>
     </row>
     <row r="303" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I303" s="51"/>
+      <c r="I303" s="58"/>
     </row>
     <row r="304" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I304" s="51"/>
+      <c r="I304" s="58"/>
     </row>
     <row r="305" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I305" s="51"/>
+      <c r="I305" s="58"/>
     </row>
     <row r="306" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I306" s="51"/>
+      <c r="I306" s="58"/>
     </row>
     <row r="307" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I307" s="51"/>
+      <c r="I307" s="58"/>
     </row>
     <row r="308" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I308" s="51"/>
+      <c r="I308" s="58"/>
     </row>
     <row r="309" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I309" s="51"/>
+      <c r="I309" s="58"/>
     </row>
     <row r="310" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I310" s="51"/>
+      <c r="I310" s="58"/>
     </row>
     <row r="311" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I311" s="51"/>
+      <c r="I311" s="58"/>
     </row>
     <row r="312" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I312" s="51"/>
+      <c r="I312" s="58"/>
     </row>
     <row r="313" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I313" s="51"/>
+      <c r="I313" s="58"/>
     </row>
     <row r="314" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I314" s="51"/>
+      <c r="I314" s="58"/>
     </row>
     <row r="315" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I315" s="51"/>
+      <c r="I315" s="58"/>
     </row>
     <row r="316" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I316" s="51"/>
+      <c r="I316" s="58"/>
     </row>
     <row r="317" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I317" s="51"/>
+      <c r="I317" s="58"/>
     </row>
     <row r="318" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I318" s="51"/>
+      <c r="I318" s="58"/>
     </row>
     <row r="319" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I319" s="51"/>
+      <c r="I319" s="58"/>
     </row>
     <row r="320" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I320" s="51"/>
+      <c r="I320" s="58"/>
     </row>
     <row r="321" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I321" s="51"/>
+      <c r="I321" s="58"/>
     </row>
     <row r="322" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I322" s="51"/>
+      <c r="I322" s="58"/>
     </row>
     <row r="323" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I323" s="51"/>
+      <c r="I323" s="58"/>
     </row>
     <row r="324" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I324" s="51"/>
+      <c r="I324" s="58"/>
     </row>
     <row r="325" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I325" s="51"/>
+      <c r="I325" s="58"/>
     </row>
     <row r="326" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I326" s="51"/>
+      <c r="I326" s="58"/>
     </row>
     <row r="327" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I327" s="51"/>
+      <c r="I327" s="58"/>
     </row>
     <row r="328" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I328" s="51"/>
+      <c r="I328" s="58"/>
     </row>
     <row r="329" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I329" s="51"/>
+      <c r="I329" s="58"/>
     </row>
     <row r="330" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I330" s="51"/>
+      <c r="I330" s="58"/>
     </row>
     <row r="331" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I331" s="51"/>
+      <c r="I331" s="58"/>
     </row>
     <row r="332" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I332" s="51"/>
+      <c r="I332" s="58"/>
     </row>
     <row r="333" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I333" s="51"/>
+      <c r="I333" s="58"/>
     </row>
     <row r="334" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I334" s="51"/>
+      <c r="I334" s="58"/>
     </row>
     <row r="335" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I335" s="51"/>
+      <c r="I335" s="58"/>
     </row>
     <row r="336" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I336" s="51"/>
+      <c r="I336" s="58"/>
     </row>
     <row r="337" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I337" s="51"/>
+      <c r="I337" s="58"/>
     </row>
     <row r="338" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I338" s="51"/>
+      <c r="I338" s="58"/>
     </row>
     <row r="339" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I339" s="51"/>
+      <c r="I339" s="58"/>
     </row>
     <row r="340" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I340" s="51"/>
+      <c r="I340" s="58"/>
     </row>
     <row r="341" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I341" s="51"/>
+      <c r="I341" s="58"/>
     </row>
     <row r="342" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I342" s="51"/>
+      <c r="I342" s="58"/>
     </row>
     <row r="343" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I343" s="51"/>
+      <c r="I343" s="58"/>
     </row>
     <row r="344" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I344" s="51"/>
+      <c r="I344" s="58"/>
     </row>
     <row r="345" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I345" s="51"/>
+      <c r="I345" s="58"/>
     </row>
     <row r="346" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I346" s="51"/>
+      <c r="I346" s="58"/>
     </row>
     <row r="347" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I347" s="51"/>
+      <c r="I347" s="58"/>
     </row>
     <row r="348" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I348" s="51"/>
+      <c r="I348" s="58"/>
     </row>
     <row r="349" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I349" s="51"/>
+      <c r="I349" s="58"/>
     </row>
     <row r="350" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I350" s="51"/>
+      <c r="I350" s="58"/>
     </row>
     <row r="351" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I351" s="51"/>
+      <c r="I351" s="58"/>
     </row>
     <row r="352" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I352" s="51"/>
+      <c r="I352" s="58"/>
     </row>
     <row r="353" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I353" s="51"/>
+      <c r="I353" s="58"/>
     </row>
     <row r="354" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I354" s="51"/>
+      <c r="I354" s="58"/>
     </row>
     <row r="355" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I355" s="51"/>
+      <c r="I355" s="58"/>
     </row>
     <row r="356" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I356" s="51"/>
+      <c r="I356" s="58"/>
     </row>
     <row r="357" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I357" s="51"/>
+      <c r="I357" s="58"/>
     </row>
     <row r="358" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I358" s="51"/>
+      <c r="I358" s="58"/>
     </row>
     <row r="359" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I359" s="51"/>
+      <c r="I359" s="58"/>
     </row>
     <row r="360" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I360" s="51"/>
+      <c r="I360" s="58"/>
     </row>
     <row r="361" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I361" s="51"/>
+      <c r="I361" s="58"/>
     </row>
     <row r="362" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I362" s="51"/>
+      <c r="I362" s="58"/>
     </row>
     <row r="363" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I363" s="51"/>
+      <c r="I363" s="58"/>
     </row>
     <row r="364" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I364" s="51"/>
+      <c r="I364" s="58"/>
     </row>
     <row r="365" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I365" s="51"/>
+      <c r="I365" s="58"/>
     </row>
     <row r="366" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I366" s="51"/>
+      <c r="I366" s="58"/>
     </row>
     <row r="367" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I367" s="51"/>
+      <c r="I367" s="58"/>
     </row>
     <row r="368" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I368" s="51"/>
+      <c r="I368" s="58"/>
     </row>
     <row r="369" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I369" s="51"/>
+      <c r="I369" s="58"/>
     </row>
     <row r="370" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I370" s="51"/>
+      <c r="I370" s="58"/>
     </row>
     <row r="371" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I371" s="51"/>
+      <c r="I371" s="58"/>
     </row>
     <row r="372" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I372" s="51"/>
+      <c r="I372" s="58"/>
     </row>
     <row r="373" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I373" s="51"/>
+      <c r="I373" s="58"/>
     </row>
     <row r="374" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I374" s="51"/>
+      <c r="I374" s="58"/>
     </row>
     <row r="375" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I375" s="51"/>
+      <c r="I375" s="58"/>
     </row>
     <row r="376" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I376" s="51"/>
+      <c r="I376" s="58"/>
     </row>
     <row r="377" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I377" s="51"/>
+      <c r="I377" s="58"/>
     </row>
     <row r="378" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I378" s="51"/>
+      <c r="I378" s="58"/>
     </row>
     <row r="379" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I379" s="51"/>
+      <c r="I379" s="58"/>
     </row>
     <row r="380" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I380" s="51"/>
+      <c r="I380" s="58"/>
     </row>
     <row r="381" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I381" s="51"/>
+      <c r="I381" s="58"/>
     </row>
     <row r="382" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I382" s="51"/>
+      <c r="I382" s="58"/>
     </row>
     <row r="383" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I383" s="51"/>
+      <c r="I383" s="58"/>
     </row>
     <row r="384" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I384" s="51"/>
+      <c r="I384" s="58"/>
     </row>
     <row r="385" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I385" s="51"/>
+      <c r="I385" s="58"/>
     </row>
     <row r="386" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I386" s="51"/>
+      <c r="I386" s="58"/>
     </row>
     <row r="387" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I387" s="51"/>
+      <c r="I387" s="58"/>
     </row>
     <row r="388" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I388" s="51"/>
+      <c r="I388" s="58"/>
     </row>
     <row r="389" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I389" s="51"/>
+      <c r="I389" s="58"/>
     </row>
     <row r="390" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I390" s="51"/>
+      <c r="I390" s="58"/>
     </row>
     <row r="391" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I391" s="51"/>
+      <c r="I391" s="58"/>
     </row>
     <row r="392" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I392" s="51"/>
+      <c r="I392" s="58"/>
     </row>
     <row r="393" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I393" s="51"/>
+      <c r="I393" s="58"/>
     </row>
     <row r="394" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I394" s="51"/>
+      <c r="I394" s="58"/>
     </row>
     <row r="395" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I395" s="51"/>
+      <c r="I395" s="58"/>
     </row>
     <row r="396" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I396" s="51"/>
+      <c r="I396" s="58"/>
     </row>
     <row r="397" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I397" s="51"/>
+      <c r="I397" s="58"/>
     </row>
     <row r="398" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I398" s="51"/>
+      <c r="I398" s="58"/>
     </row>
     <row r="399" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I399" s="51"/>
+      <c r="I399" s="58"/>
     </row>
     <row r="400" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I400" s="51"/>
+      <c r="I400" s="58"/>
     </row>
     <row r="401" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I401" s="51"/>
+      <c r="I401" s="58"/>
     </row>
     <row r="402" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I402" s="51"/>
+      <c r="I402" s="58"/>
     </row>
     <row r="403" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I403" s="51"/>
+      <c r="I403" s="58"/>
     </row>
     <row r="404" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I404" s="51"/>
+      <c r="I404" s="58"/>
     </row>
     <row r="405" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I405" s="51"/>
+      <c r="I405" s="58"/>
     </row>
     <row r="406" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I406" s="51"/>
+      <c r="I406" s="58"/>
     </row>
     <row r="407" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I407" s="51"/>
+      <c r="I407" s="58"/>
     </row>
     <row r="408" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I408" s="51"/>
+      <c r="I408" s="58"/>
     </row>
     <row r="409" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I409" s="51"/>
+      <c r="I409" s="58"/>
     </row>
     <row r="410" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I410" s="51"/>
+      <c r="I410" s="58"/>
     </row>
     <row r="411" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I411" s="51"/>
+      <c r="I411" s="58"/>
     </row>
     <row r="412" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I412" s="51"/>
+      <c r="I412" s="58"/>
     </row>
     <row r="413" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I413" s="51"/>
+      <c r="I413" s="58"/>
     </row>
     <row r="414" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I414" s="51"/>
+      <c r="I414" s="58"/>
     </row>
     <row r="415" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I415" s="51"/>
+      <c r="I415" s="58"/>
     </row>
     <row r="416" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I416" s="51"/>
+      <c r="I416" s="58"/>
     </row>
     <row r="417" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I417" s="51"/>
+      <c r="I417" s="58"/>
     </row>
     <row r="418" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I418" s="51"/>
+      <c r="I418" s="58"/>
     </row>
     <row r="419" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I419" s="51"/>
+      <c r="I419" s="58"/>
     </row>
     <row r="420" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I420" s="51"/>
+      <c r="I420" s="58"/>
     </row>
     <row r="421" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I421" s="51"/>
+      <c r="I421" s="58"/>
     </row>
     <row r="422" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I422" s="51"/>
+      <c r="I422" s="58"/>
     </row>
     <row r="423" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I423" s="51"/>
+      <c r="I423" s="58"/>
     </row>
     <row r="424" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I424" s="51"/>
+      <c r="I424" s="58"/>
     </row>
     <row r="425" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I425" s="51"/>
+      <c r="I425" s="58"/>
     </row>
     <row r="426" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I426" s="51"/>
+      <c r="I426" s="58"/>
     </row>
     <row r="427" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I427" s="51"/>
+      <c r="I427" s="58"/>
     </row>
     <row r="428" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I428" s="51"/>
+      <c r="I428" s="58"/>
     </row>
     <row r="429" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I429" s="51"/>
+      <c r="I429" s="58"/>
     </row>
     <row r="430" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I430" s="51"/>
+      <c r="I430" s="58"/>
     </row>
     <row r="431" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I431" s="51"/>
+      <c r="I431" s="58"/>
     </row>
     <row r="432" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I432" s="51"/>
+      <c r="I432" s="58"/>
     </row>
     <row r="433" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I433" s="51"/>
+      <c r="I433" s="58"/>
     </row>
     <row r="434" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I434" s="51"/>
+      <c r="I434" s="58"/>
     </row>
     <row r="435" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I435" s="51"/>
+      <c r="I435" s="58"/>
     </row>
     <row r="436" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I436" s="51"/>
+      <c r="I436" s="58"/>
     </row>
     <row r="437" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I437" s="51"/>
+      <c r="I437" s="58"/>
     </row>
     <row r="438" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I438" s="51"/>
+      <c r="I438" s="58"/>
     </row>
     <row r="439" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I439" s="51"/>
+      <c r="I439" s="58"/>
     </row>
     <row r="440" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I440" s="51"/>
+      <c r="I440" s="58"/>
     </row>
     <row r="441" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I441" s="51"/>
+      <c r="I441" s="58"/>
     </row>
     <row r="442" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I442" s="51"/>
+      <c r="I442" s="58"/>
     </row>
     <row r="443" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I443" s="51"/>
+      <c r="I443" s="58"/>
     </row>
     <row r="444" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I444" s="51"/>
+      <c r="I444" s="58"/>
     </row>
     <row r="445" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I445" s="51"/>
+      <c r="I445" s="58"/>
     </row>
     <row r="446" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I446" s="51"/>
+      <c r="I446" s="58"/>
     </row>
     <row r="447" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I447" s="51"/>
+      <c r="I447" s="58"/>
     </row>
     <row r="448" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I448" s="51"/>
+      <c r="I448" s="58"/>
     </row>
     <row r="449" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I449" s="51"/>
+      <c r="I449" s="58"/>
     </row>
     <row r="450" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I450" s="51"/>
+      <c r="I450" s="58"/>
     </row>
     <row r="451" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I451" s="51"/>
+      <c r="I451" s="58"/>
     </row>
     <row r="452" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I452" s="51"/>
+      <c r="I452" s="58"/>
     </row>
     <row r="453" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I453" s="51"/>
+      <c r="I453" s="58"/>
     </row>
     <row r="454" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I454" s="51"/>
+      <c r="I454" s="58"/>
     </row>
     <row r="455" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I455" s="51"/>
+      <c r="I455" s="58"/>
     </row>
     <row r="456" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I456" s="51"/>
+      <c r="I456" s="58"/>
     </row>
     <row r="457" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I457" s="51"/>
+      <c r="I457" s="58"/>
     </row>
     <row r="458" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I458" s="51"/>
+      <c r="I458" s="58"/>
     </row>
     <row r="459" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I459" s="51"/>
+      <c r="I459" s="58"/>
     </row>
     <row r="460" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I460" s="51"/>
+      <c r="I460" s="58"/>
     </row>
     <row r="461" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I461" s="51"/>
+      <c r="I461" s="58"/>
     </row>
     <row r="462" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I462" s="51"/>
+      <c r="I462" s="58"/>
     </row>
     <row r="463" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I463" s="51"/>
+      <c r="I463" s="58"/>
     </row>
     <row r="464" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I464" s="51"/>
+      <c r="I464" s="58"/>
     </row>
     <row r="465" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I465" s="51"/>
+      <c r="I465" s="58"/>
     </row>
     <row r="466" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I466" s="51"/>
+      <c r="I466" s="58"/>
     </row>
     <row r="467" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I467" s="51"/>
+      <c r="I467" s="58"/>
     </row>
     <row r="468" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I468" s="51"/>
+      <c r="I468" s="58"/>
     </row>
     <row r="469" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I469" s="51"/>
+      <c r="I469" s="58"/>
     </row>
     <row r="470" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I470" s="51"/>
+      <c r="I470" s="58"/>
     </row>
     <row r="471" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I471" s="51"/>
+      <c r="I471" s="58"/>
     </row>
     <row r="472" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I472" s="51"/>
+      <c r="I472" s="58"/>
     </row>
     <row r="473" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I473" s="51"/>
+      <c r="I473" s="58"/>
     </row>
     <row r="474" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I474" s="51"/>
+      <c r="I474" s="58"/>
     </row>
     <row r="475" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I475" s="51"/>
+      <c r="I475" s="58"/>
     </row>
     <row r="476" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I476" s="51"/>
+      <c r="I476" s="58"/>
     </row>
     <row r="477" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I477" s="51"/>
+      <c r="I477" s="58"/>
     </row>
     <row r="478" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I478" s="51"/>
+      <c r="I478" s="58"/>
     </row>
     <row r="479" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I479" s="51"/>
+      <c r="I479" s="58"/>
     </row>
     <row r="480" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I480" s="51"/>
+      <c r="I480" s="58"/>
     </row>
     <row r="481" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I481" s="51"/>
+      <c r="I481" s="58"/>
     </row>
     <row r="482" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I482" s="51"/>
+      <c r="I482" s="58"/>
     </row>
     <row r="483" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I483" s="51"/>
+      <c r="I483" s="58"/>
     </row>
     <row r="484" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I484" s="51"/>
+      <c r="I484" s="58"/>
     </row>
     <row r="485" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I485" s="51"/>
+      <c r="I485" s="58"/>
     </row>
     <row r="486" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I486" s="51"/>
+      <c r="I486" s="58"/>
     </row>
     <row r="487" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I487" s="51"/>
+      <c r="I487" s="58"/>
     </row>
     <row r="488" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I488" s="51"/>
+      <c r="I488" s="58"/>
     </row>
     <row r="489" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I489" s="51"/>
+      <c r="I489" s="58"/>
     </row>
     <row r="490" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I490" s="51"/>
+      <c r="I490" s="58"/>
     </row>
     <row r="491" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I491" s="51"/>
+      <c r="I491" s="58"/>
     </row>
     <row r="492" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I492" s="51"/>
+      <c r="I492" s="58"/>
     </row>
     <row r="493" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I493" s="51"/>
+      <c r="I493" s="58"/>
     </row>
     <row r="494" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I494" s="51"/>
+      <c r="I494" s="58"/>
     </row>
     <row r="495" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I495" s="51"/>
+      <c r="I495" s="58"/>
     </row>
     <row r="496" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I496" s="51"/>
+      <c r="I496" s="58"/>
     </row>
     <row r="497" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I497" s="51"/>
+      <c r="I497" s="58"/>
     </row>
     <row r="498" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I498" s="51"/>
+      <c r="I498" s="58"/>
     </row>
     <row r="499" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I499" s="51"/>
+      <c r="I499" s="58"/>
     </row>
     <row r="500" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I500" s="51"/>
+      <c r="I500" s="58"/>
     </row>
     <row r="501" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I501" s="51"/>
+      <c r="I501" s="58"/>
     </row>
     <row r="502" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I502" s="51"/>
+      <c r="I502" s="58"/>
     </row>
     <row r="503" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I503" s="51"/>
+      <c r="I503" s="58"/>
     </row>
     <row r="504" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I504" s="51"/>
+      <c r="I504" s="58"/>
     </row>
     <row r="505" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I505" s="51"/>
+      <c r="I505" s="58"/>
     </row>
     <row r="506" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I506" s="51"/>
+      <c r="I506" s="58"/>
     </row>
     <row r="507" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I507" s="51"/>
+      <c r="I507" s="58"/>
     </row>
     <row r="508" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I508" s="51"/>
+      <c r="I508" s="58"/>
     </row>
     <row r="509" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I509" s="51"/>
+      <c r="I509" s="58"/>
     </row>
     <row r="510" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I510" s="51"/>
+      <c r="I510" s="58"/>
     </row>
     <row r="511" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I511" s="51"/>
+      <c r="I511" s="58"/>
     </row>
     <row r="512" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I512" s="51"/>
+      <c r="I512" s="58"/>
     </row>
     <row r="513" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I513" s="51"/>
+      <c r="I513" s="58"/>
     </row>
     <row r="514" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I514" s="51"/>
+      <c r="I514" s="58"/>
     </row>
     <row r="515" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I515" s="51"/>
+      <c r="I515" s="58"/>
     </row>
     <row r="516" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I516" s="51"/>
+      <c r="I516" s="58"/>
     </row>
     <row r="517" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I517" s="51"/>
+      <c r="I517" s="58"/>
     </row>
     <row r="518" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I518" s="51"/>
+      <c r="I518" s="58"/>
     </row>
     <row r="519" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I519" s="51"/>
+      <c r="I519" s="58"/>
     </row>
     <row r="520" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I520" s="51"/>
+      <c r="I520" s="58"/>
     </row>
     <row r="521" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I521" s="51"/>
+      <c r="I521" s="58"/>
     </row>
     <row r="522" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I522" s="51"/>
+      <c r="I522" s="58"/>
     </row>
     <row r="523" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I523" s="51"/>
+      <c r="I523" s="58"/>
     </row>
     <row r="524" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I524" s="51"/>
+      <c r="I524" s="58"/>
     </row>
     <row r="525" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I525" s="51"/>
+      <c r="I525" s="58"/>
     </row>
     <row r="526" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I526" s="51"/>
+      <c r="I526" s="58"/>
     </row>
     <row r="527" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I527" s="51"/>
+      <c r="I527" s="58"/>
     </row>
     <row r="528" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I528" s="51"/>
+      <c r="I528" s="58"/>
     </row>
     <row r="529" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I529" s="51"/>
+      <c r="I529" s="58"/>
     </row>
     <row r="530" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I530" s="51"/>
+      <c r="I530" s="58"/>
     </row>
     <row r="531" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I531" s="51"/>
+      <c r="I531" s="58"/>
     </row>
     <row r="532" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I532" s="51"/>
+      <c r="I532" s="58"/>
     </row>
     <row r="533" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I533" s="51"/>
+      <c r="I533" s="58"/>
     </row>
     <row r="534" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I534" s="51"/>
+      <c r="I534" s="58"/>
     </row>
     <row r="535" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I535" s="51"/>
+      <c r="I535" s="58"/>
     </row>
     <row r="536" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I536" s="51"/>
+      <c r="I536" s="58"/>
     </row>
     <row r="537" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I537" s="51"/>
+      <c r="I537" s="58"/>
     </row>
     <row r="538" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I538" s="51"/>
+      <c r="I538" s="58"/>
     </row>
     <row r="539" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I539" s="51"/>
+      <c r="I539" s="58"/>
     </row>
     <row r="540" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I540" s="51"/>
+      <c r="I540" s="58"/>
     </row>
     <row r="541" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I541" s="51"/>
+      <c r="I541" s="58"/>
     </row>
     <row r="542" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I542" s="51"/>
+      <c r="I542" s="58"/>
     </row>
     <row r="543" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I543" s="51"/>
+      <c r="I543" s="58"/>
     </row>
     <row r="544" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I544" s="51"/>
+      <c r="I544" s="58"/>
     </row>
     <row r="545" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I545" s="51"/>
+      <c r="I545" s="58"/>
     </row>
     <row r="546" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I546" s="51"/>
+      <c r="I546" s="58"/>
     </row>
     <row r="547" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I547" s="51"/>
+      <c r="I547" s="58"/>
     </row>
     <row r="548" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I548" s="51"/>
+      <c r="I548" s="58"/>
     </row>
     <row r="549" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I549" s="51"/>
+      <c r="I549" s="58"/>
     </row>
     <row r="550" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I550" s="51"/>
+      <c r="I550" s="58"/>
     </row>
     <row r="551" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I551" s="51"/>
+      <c r="I551" s="58"/>
     </row>
     <row r="552" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I552" s="51"/>
+      <c r="I552" s="58"/>
     </row>
     <row r="553" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I553" s="51"/>
+      <c r="I553" s="58"/>
     </row>
     <row r="554" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I554" s="51"/>
+      <c r="I554" s="58"/>
     </row>
     <row r="555" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I555" s="51"/>
+      <c r="I555" s="58"/>
     </row>
     <row r="556" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I556" s="51"/>
+      <c r="I556" s="58"/>
     </row>
     <row r="557" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I557" s="51"/>
+      <c r="I557" s="58"/>
     </row>
     <row r="558" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I558" s="51"/>
+      <c r="I558" s="58"/>
     </row>
     <row r="559" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I559" s="51"/>
+      <c r="I559" s="58"/>
     </row>
     <row r="560" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I560" s="51"/>
+      <c r="I560" s="58"/>
     </row>
     <row r="561" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I561" s="51"/>
+      <c r="I561" s="58"/>
     </row>
     <row r="562" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I562" s="51"/>
+      <c r="I562" s="58"/>
     </row>
     <row r="563" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I563" s="51"/>
+      <c r="I563" s="58"/>
     </row>
     <row r="564" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I564" s="51"/>
+      <c r="I564" s="58"/>
     </row>
     <row r="565" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I565" s="51"/>
+      <c r="I565" s="58"/>
     </row>
     <row r="566" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I566" s="51"/>
+      <c r="I566" s="58"/>
     </row>
     <row r="567" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I567" s="51"/>
+      <c r="I567" s="58"/>
     </row>
     <row r="568" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I568" s="51"/>
+      <c r="I568" s="58"/>
     </row>
     <row r="569" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I569" s="51"/>
+      <c r="I569" s="58"/>
     </row>
     <row r="570" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I570" s="51"/>
+      <c r="I570" s="58"/>
     </row>
     <row r="571" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I571" s="51"/>
+      <c r="I571" s="58"/>
     </row>
     <row r="572" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I572" s="51"/>
+      <c r="I572" s="58"/>
     </row>
     <row r="573" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I573" s="51"/>
+      <c r="I573" s="58"/>
     </row>
     <row r="574" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I574" s="51"/>
+      <c r="I574" s="58"/>
     </row>
     <row r="575" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I575" s="51"/>
+      <c r="I575" s="58"/>
     </row>
     <row r="576" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I576" s="51"/>
+      <c r="I576" s="58"/>
     </row>
     <row r="577" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I577" s="51"/>
+      <c r="I577" s="58"/>
     </row>
     <row r="578" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I578" s="51"/>
+      <c r="I578" s="58"/>
     </row>
     <row r="579" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I579" s="51"/>
+      <c r="I579" s="58"/>
     </row>
     <row r="580" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I580" s="51"/>
+      <c r="I580" s="58"/>
     </row>
     <row r="581" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I581" s="51"/>
+      <c r="I581" s="58"/>
     </row>
     <row r="582" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I582" s="51"/>
+      <c r="I582" s="58"/>
     </row>
     <row r="583" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I583" s="51"/>
+      <c r="I583" s="58"/>
     </row>
     <row r="584" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I584" s="51"/>
+      <c r="I584" s="58"/>
     </row>
     <row r="585" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I585" s="51"/>
+      <c r="I585" s="58"/>
     </row>
     <row r="586" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I586" s="51"/>
+      <c r="I586" s="58"/>
     </row>
     <row r="587" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I587" s="51"/>
+      <c r="I587" s="58"/>
     </row>
     <row r="588" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I588" s="51"/>
+      <c r="I588" s="58"/>
     </row>
     <row r="589" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I589" s="51"/>
+      <c r="I589" s="58"/>
     </row>
     <row r="590" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I590" s="51"/>
+      <c r="I590" s="58"/>
     </row>
     <row r="591" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I591" s="51"/>
+      <c r="I591" s="58"/>
     </row>
     <row r="592" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I592" s="51"/>
+      <c r="I592" s="58"/>
     </row>
     <row r="593" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I593" s="51"/>
+      <c r="I593" s="58"/>
     </row>
     <row r="594" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I594" s="51"/>
+      <c r="I594" s="58"/>
     </row>
     <row r="595" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I595" s="51"/>
+      <c r="I595" s="58"/>
     </row>
     <row r="596" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I596" s="51"/>
+      <c r="I596" s="58"/>
     </row>
     <row r="597" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I597" s="51"/>
+      <c r="I597" s="58"/>
     </row>
     <row r="598" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I598" s="51"/>
+      <c r="I598" s="58"/>
     </row>
     <row r="599" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I599" s="51"/>
+      <c r="I599" s="58"/>
     </row>
     <row r="600" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I600" s="51"/>
+      <c r="I600" s="58"/>
     </row>
     <row r="601" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I601" s="51"/>
+      <c r="I601" s="58"/>
     </row>
     <row r="602" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I602" s="51"/>
+      <c r="I602" s="58"/>
     </row>
     <row r="603" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I603" s="51"/>
+      <c r="I603" s="58"/>
     </row>
     <row r="604" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I604" s="51"/>
+      <c r="I604" s="58"/>
     </row>
     <row r="605" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I605" s="51"/>
+      <c r="I605" s="58"/>
     </row>
     <row r="606" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I606" s="51"/>
+      <c r="I606" s="58"/>
     </row>
     <row r="607" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I607" s="51"/>
+      <c r="I607" s="58"/>
     </row>
     <row r="608" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I608" s="51"/>
+      <c r="I608" s="58"/>
     </row>
     <row r="609" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I609" s="51"/>
+      <c r="I609" s="58"/>
     </row>
     <row r="610" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I610" s="51"/>
+      <c r="I610" s="58"/>
     </row>
     <row r="611" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I611" s="51"/>
+      <c r="I611" s="58"/>
     </row>
     <row r="612" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I612" s="51"/>
+      <c r="I612" s="58"/>
     </row>
     <row r="613" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I613" s="51"/>
+      <c r="I613" s="58"/>
     </row>
     <row r="614" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I614" s="51"/>
+      <c r="I614" s="58"/>
     </row>
     <row r="615" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I615" s="51"/>
+      <c r="I615" s="58"/>
     </row>
     <row r="616" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I616" s="51"/>
+      <c r="I616" s="58"/>
     </row>
     <row r="617" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I617" s="51"/>
+      <c r="I617" s="58"/>
     </row>
     <row r="618" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I618" s="51"/>
+      <c r="I618" s="58"/>
     </row>
     <row r="619" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I619" s="51"/>
+      <c r="I619" s="58"/>
     </row>
     <row r="620" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I620" s="51"/>
+      <c r="I620" s="58"/>
     </row>
     <row r="621" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I621" s="51"/>
+      <c r="I621" s="58"/>
     </row>
     <row r="622" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I622" s="51"/>
+      <c r="I622" s="58"/>
     </row>
     <row r="623" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I623" s="51"/>
+      <c r="I623" s="58"/>
     </row>
     <row r="624" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I624" s="51"/>
+      <c r="I624" s="58"/>
     </row>
     <row r="625" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I625" s="51"/>
+      <c r="I625" s="58"/>
     </row>
     <row r="626" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I626" s="51"/>
+      <c r="I626" s="58"/>
     </row>
     <row r="627" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I627" s="51"/>
+      <c r="I627" s="58"/>
     </row>
     <row r="628" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I628" s="51"/>
+      <c r="I628" s="58"/>
     </row>
     <row r="629" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I629" s="51"/>
+      <c r="I629" s="58"/>
     </row>
     <row r="630" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I630" s="51"/>
+      <c r="I630" s="58"/>
     </row>
     <row r="631" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I631" s="51"/>
+      <c r="I631" s="58"/>
     </row>
     <row r="632" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I632" s="51"/>
+      <c r="I632" s="58"/>
     </row>
     <row r="633" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I633" s="51"/>
+      <c r="I633" s="58"/>
     </row>
     <row r="634" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I634" s="51"/>
+      <c r="I634" s="58"/>
     </row>
     <row r="635" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I635" s="51"/>
+      <c r="I635" s="58"/>
     </row>
     <row r="636" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I636" s="51"/>
+      <c r="I636" s="58"/>
     </row>
     <row r="637" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I637" s="51"/>
+      <c r="I637" s="58"/>
     </row>
     <row r="638" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I638" s="51"/>
+      <c r="I638" s="58"/>
     </row>
     <row r="639" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I639" s="51"/>
+      <c r="I639" s="58"/>
     </row>
     <row r="640" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I640" s="51"/>
+      <c r="I640" s="58"/>
     </row>
     <row r="641" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I641" s="51"/>
+      <c r="I641" s="58"/>
     </row>
     <row r="642" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I642" s="51"/>
+      <c r="I642" s="58"/>
     </row>
     <row r="643" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I643" s="51"/>
+      <c r="I643" s="58"/>
     </row>
     <row r="644" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I644" s="51"/>
+      <c r="I644" s="58"/>
     </row>
     <row r="645" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I645" s="51"/>
+      <c r="I645" s="58"/>
     </row>
     <row r="646" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I646" s="51"/>
+      <c r="I646" s="58"/>
     </row>
     <row r="647" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I647" s="51"/>
+      <c r="I647" s="58"/>
     </row>
     <row r="648" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I648" s="51"/>
+      <c r="I648" s="58"/>
     </row>
     <row r="649" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I649" s="51"/>
+      <c r="I649" s="58"/>
     </row>
     <row r="650" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I650" s="51"/>
+      <c r="I650" s="58"/>
     </row>
     <row r="651" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I651" s="51"/>
+      <c r="I651" s="58"/>
     </row>
     <row r="652" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I652" s="51"/>
+      <c r="I652" s="58"/>
     </row>
     <row r="653" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I653" s="51"/>
+      <c r="I653" s="58"/>
     </row>
     <row r="654" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I654" s="51"/>
+      <c r="I654" s="58"/>
     </row>
     <row r="655" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I655" s="51"/>
+      <c r="I655" s="58"/>
     </row>
     <row r="656" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I656" s="51"/>
+      <c r="I656" s="58"/>
     </row>
     <row r="657" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I657" s="51"/>
+      <c r="I657" s="58"/>
     </row>
     <row r="658" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I658" s="51"/>
+      <c r="I658" s="58"/>
     </row>
     <row r="659" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I659" s="51"/>
+      <c r="I659" s="58"/>
     </row>
     <row r="660" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I660" s="51"/>
+      <c r="I660" s="58"/>
     </row>
     <row r="661" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I661" s="51"/>
+      <c r="I661" s="58"/>
     </row>
     <row r="662" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I662" s="51"/>
+      <c r="I662" s="58"/>
     </row>
     <row r="663" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I663" s="51"/>
+      <c r="I663" s="58"/>
     </row>
     <row r="664" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I664" s="51"/>
+      <c r="I664" s="58"/>
     </row>
     <row r="665" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I665" s="51"/>
+      <c r="I665" s="58"/>
     </row>
     <row r="666" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I666" s="51"/>
+      <c r="I666" s="58"/>
     </row>
     <row r="667" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I667" s="51"/>
+      <c r="I667" s="58"/>
     </row>
     <row r="668" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I668" s="51"/>
+      <c r="I668" s="58"/>
     </row>
     <row r="669" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I669" s="51"/>
+      <c r="I669" s="58"/>
     </row>
     <row r="670" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I670" s="51"/>
+      <c r="I670" s="58"/>
     </row>
     <row r="671" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I671" s="51"/>
+      <c r="I671" s="58"/>
     </row>
     <row r="672" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I672" s="51"/>
+      <c r="I672" s="58"/>
     </row>
     <row r="673" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I673" s="51"/>
+      <c r="I673" s="58"/>
     </row>
     <row r="674" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I674" s="51"/>
+      <c r="I674" s="58"/>
     </row>
     <row r="675" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I675" s="51"/>
+      <c r="I675" s="58"/>
     </row>
     <row r="676" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I676" s="51"/>
+      <c r="I676" s="58"/>
     </row>
     <row r="677" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I677" s="51"/>
+      <c r="I677" s="58"/>
     </row>
     <row r="678" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I678" s="51"/>
+      <c r="I678" s="58"/>
     </row>
     <row r="679" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I679" s="51"/>
+      <c r="I679" s="58"/>
     </row>
     <row r="680" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I680" s="51"/>
+      <c r="I680" s="58"/>
     </row>
     <row r="681" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I681" s="51"/>
+      <c r="I681" s="58"/>
     </row>
     <row r="682" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I682" s="51"/>
+      <c r="I682" s="58"/>
     </row>
     <row r="683" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I683" s="51"/>
+      <c r="I683" s="58"/>
     </row>
     <row r="684" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I684" s="51"/>
+      <c r="I684" s="58"/>
     </row>
     <row r="685" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I685" s="51"/>
+      <c r="I685" s="58"/>
     </row>
     <row r="686" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I686" s="51"/>
+      <c r="I686" s="58"/>
     </row>
     <row r="687" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I687" s="51"/>
+      <c r="I687" s="58"/>
     </row>
     <row r="688" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I688" s="51"/>
+      <c r="I688" s="58"/>
     </row>
     <row r="689" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I689" s="51"/>
+      <c r="I689" s="58"/>
     </row>
     <row r="690" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I690" s="51"/>
+      <c r="I690" s="58"/>
     </row>
     <row r="691" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I691" s="51"/>
+      <c r="I691" s="58"/>
     </row>
     <row r="692" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I692" s="51"/>
+      <c r="I692" s="58"/>
     </row>
     <row r="693" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I693" s="51"/>
+      <c r="I693" s="58"/>
     </row>
     <row r="694" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I694" s="51"/>
+      <c r="I694" s="58"/>
     </row>
     <row r="695" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I695" s="51"/>
+      <c r="I695" s="58"/>
     </row>
     <row r="696" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I696" s="51"/>
+      <c r="I696" s="58"/>
     </row>
     <row r="697" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I697" s="51"/>
+      <c r="I697" s="58"/>
     </row>
     <row r="698" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I698" s="51"/>
+      <c r="I698" s="58"/>
     </row>
     <row r="699" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I699" s="51"/>
+      <c r="I699" s="58"/>
     </row>
     <row r="700" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I700" s="51"/>
+      <c r="I700" s="58"/>
     </row>
     <row r="701" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I701" s="51"/>
+      <c r="I701" s="58"/>
     </row>
     <row r="702" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I702" s="51"/>
+      <c r="I702" s="58"/>
     </row>
     <row r="703" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I703" s="51"/>
+      <c r="I703" s="58"/>
     </row>
     <row r="704" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I704" s="51"/>
+      <c r="I704" s="58"/>
     </row>
     <row r="705" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I705" s="51"/>
+      <c r="I705" s="58"/>
     </row>
     <row r="706" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I706" s="51"/>
+      <c r="I706" s="58"/>
     </row>
     <row r="707" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I707" s="51"/>
+      <c r="I707" s="58"/>
     </row>
     <row r="708" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I708" s="51"/>
+      <c r="I708" s="58"/>
     </row>
     <row r="709" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I709" s="51"/>
+      <c r="I709" s="58"/>
     </row>
     <row r="710" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I710" s="51"/>
+      <c r="I710" s="58"/>
     </row>
     <row r="711" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I711" s="51"/>
+      <c r="I711" s="58"/>
     </row>
     <row r="712" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I712" s="51"/>
+      <c r="I712" s="58"/>
     </row>
     <row r="713" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I713" s="51"/>
+      <c r="I713" s="58"/>
     </row>
     <row r="714" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I714" s="51"/>
+      <c r="I714" s="58"/>
     </row>
     <row r="715" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I715" s="51"/>
+      <c r="I715" s="58"/>
     </row>
     <row r="716" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I716" s="51"/>
+      <c r="I716" s="58"/>
     </row>
     <row r="717" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I717" s="51"/>
+      <c r="I717" s="58"/>
     </row>
     <row r="718" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I718" s="51"/>
+      <c r="I718" s="58"/>
     </row>
     <row r="719" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I719" s="51"/>
+      <c r="I719" s="58"/>
     </row>
     <row r="720" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I720" s="51"/>
+      <c r="I720" s="58"/>
     </row>
     <row r="721" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I721" s="51"/>
+      <c r="I721" s="58"/>
     </row>
     <row r="722" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I722" s="51"/>
+      <c r="I722" s="58"/>
     </row>
     <row r="723" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I723" s="51"/>
+      <c r="I723" s="58"/>
     </row>
     <row r="724" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I724" s="51"/>
+      <c r="I724" s="58"/>
     </row>
     <row r="725" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I725" s="51"/>
+      <c r="I725" s="58"/>
     </row>
     <row r="726" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I726" s="51"/>
+      <c r="I726" s="58"/>
     </row>
     <row r="727" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I727" s="51"/>
+      <c r="I727" s="58"/>
     </row>
     <row r="728" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I728" s="51"/>
+      <c r="I728" s="58"/>
     </row>
     <row r="729" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I729" s="51"/>
+      <c r="I729" s="58"/>
     </row>
     <row r="730" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I730" s="51"/>
+      <c r="I730" s="58"/>
     </row>
     <row r="731" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I731" s="51"/>
+      <c r="I731" s="58"/>
     </row>
     <row r="732" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I732" s="51"/>
+      <c r="I732" s="58"/>
     </row>
     <row r="733" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I733" s="51"/>
+      <c r="I733" s="58"/>
     </row>
     <row r="734" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I734" s="51"/>
+      <c r="I734" s="58"/>
     </row>
     <row r="735" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I735" s="51"/>
+      <c r="I735" s="58"/>
     </row>
     <row r="736" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I736" s="51"/>
+      <c r="I736" s="58"/>
     </row>
     <row r="737" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I737" s="51"/>
+      <c r="I737" s="58"/>
     </row>
     <row r="738" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I738" s="51"/>
+      <c r="I738" s="58"/>
     </row>
     <row r="739" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I739" s="51"/>
+      <c r="I739" s="58"/>
     </row>
     <row r="740" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I740" s="51"/>
+      <c r="I740" s="58"/>
     </row>
     <row r="741" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I741" s="51"/>
+      <c r="I741" s="58"/>
     </row>
     <row r="742" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I742" s="51"/>
+      <c r="I742" s="58"/>
     </row>
     <row r="743" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I743" s="51"/>
+      <c r="I743" s="58"/>
     </row>
     <row r="744" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I744" s="51"/>
+      <c r="I744" s="58"/>
     </row>
     <row r="745" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I745" s="51"/>
+      <c r="I745" s="58"/>
     </row>
     <row r="746" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I746" s="51"/>
+      <c r="I746" s="58"/>
     </row>
     <row r="747" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I747" s="51"/>
+      <c r="I747" s="58"/>
     </row>
     <row r="748" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I748" s="51"/>
+      <c r="I748" s="58"/>
     </row>
     <row r="749" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I749" s="51"/>
+      <c r="I749" s="58"/>
     </row>
     <row r="750" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I750" s="51"/>
+      <c r="I750" s="58"/>
     </row>
     <row r="751" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I751" s="51"/>
+      <c r="I751" s="58"/>
     </row>
     <row r="752" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I752" s="51"/>
+      <c r="I752" s="58"/>
     </row>
     <row r="753" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I753" s="51"/>
+      <c r="I753" s="58"/>
     </row>
     <row r="754" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I754" s="51"/>
+      <c r="I754" s="58"/>
     </row>
     <row r="755" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I755" s="51"/>
+      <c r="I755" s="58"/>
     </row>
     <row r="756" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I756" s="51"/>
+      <c r="I756" s="58"/>
     </row>
     <row r="757" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I757" s="51"/>
+      <c r="I757" s="58"/>
     </row>
     <row r="758" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I758" s="51"/>
+      <c r="I758" s="58"/>
     </row>
     <row r="759" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I759" s="51"/>
+      <c r="I759" s="58"/>
     </row>
     <row r="760" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I760" s="51"/>
+      <c r="I760" s="58"/>
     </row>
     <row r="761" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I761" s="51"/>
+      <c r="I761" s="58"/>
     </row>
     <row r="762" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I762" s="51"/>
+      <c r="I762" s="58"/>
     </row>
     <row r="763" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I763" s="51"/>
+      <c r="I763" s="58"/>
     </row>
     <row r="764" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I764" s="51"/>
+      <c r="I764" s="58"/>
     </row>
     <row r="765" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I765" s="51"/>
+      <c r="I765" s="58"/>
     </row>
     <row r="766" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I766" s="51"/>
+      <c r="I766" s="58"/>
     </row>
     <row r="767" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I767" s="51"/>
+      <c r="I767" s="58"/>
     </row>
     <row r="768" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I768" s="51"/>
+      <c r="I768" s="58"/>
     </row>
     <row r="769" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I769" s="51"/>
+      <c r="I769" s="58"/>
     </row>
     <row r="770" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I770" s="51"/>
+      <c r="I770" s="58"/>
     </row>
     <row r="771" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I771" s="51"/>
+      <c r="I771" s="58"/>
     </row>
     <row r="772" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I772" s="51"/>
+      <c r="I772" s="58"/>
     </row>
     <row r="773" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I773" s="51"/>
+      <c r="I773" s="58"/>
     </row>
     <row r="774" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I774" s="51"/>
+      <c r="I774" s="58"/>
     </row>
     <row r="775" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I775" s="51"/>
+      <c r="I775" s="58"/>
     </row>
     <row r="776" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I776" s="51"/>
+      <c r="I776" s="58"/>
     </row>
     <row r="777" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I777" s="51"/>
+      <c r="I777" s="58"/>
     </row>
     <row r="778" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I778" s="51"/>
+      <c r="I778" s="58"/>
     </row>
     <row r="779" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I779" s="51"/>
+      <c r="I779" s="58"/>
     </row>
     <row r="780" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I780" s="51"/>
+      <c r="I780" s="58"/>
     </row>
     <row r="781" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I781" s="51"/>
+      <c r="I781" s="58"/>
     </row>
     <row r="782" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I782" s="51"/>
+      <c r="I782" s="58"/>
     </row>
     <row r="783" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I783" s="51"/>
+      <c r="I783" s="58"/>
     </row>
     <row r="784" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I784" s="51"/>
+      <c r="I784" s="58"/>
     </row>
     <row r="785" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I785" s="51"/>
+      <c r="I785" s="58"/>
     </row>
     <row r="786" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I786" s="51"/>
+      <c r="I786" s="58"/>
     </row>
     <row r="787" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I787" s="51"/>
+      <c r="I787" s="58"/>
     </row>
     <row r="788" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I788" s="51"/>
+      <c r="I788" s="58"/>
     </row>
     <row r="789" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I789" s="51"/>
+      <c r="I789" s="58"/>
     </row>
     <row r="790" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I790" s="51"/>
+      <c r="I790" s="58"/>
     </row>
     <row r="791" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I791" s="51"/>
+      <c r="I791" s="58"/>
     </row>
     <row r="792" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I792" s="51"/>
+      <c r="I792" s="58"/>
     </row>
     <row r="793" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I793" s="51"/>
+      <c r="I793" s="58"/>
     </row>
     <row r="794" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I794" s="51"/>
+      <c r="I794" s="58"/>
     </row>
     <row r="795" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I795" s="51"/>
+      <c r="I795" s="58"/>
     </row>
     <row r="796" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I796" s="51"/>
+      <c r="I796" s="58"/>
     </row>
     <row r="797" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I797" s="51"/>
+      <c r="I797" s="58"/>
     </row>
     <row r="798" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I798" s="51"/>
+      <c r="I798" s="58"/>
     </row>
     <row r="799" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I799" s="51"/>
+      <c r="I799" s="58"/>
     </row>
     <row r="800" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I800" s="51"/>
+      <c r="I800" s="58"/>
     </row>
     <row r="801" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I801" s="51"/>
+      <c r="I801" s="58"/>
     </row>
     <row r="802" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I802" s="51"/>
+      <c r="I802" s="58"/>
     </row>
     <row r="803" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I803" s="51"/>
+      <c r="I803" s="58"/>
     </row>
     <row r="804" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I804" s="51"/>
+      <c r="I804" s="58"/>
     </row>
     <row r="805" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I805" s="51"/>
+      <c r="I805" s="58"/>
     </row>
     <row r="806" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I806" s="51"/>
+      <c r="I806" s="58"/>
     </row>
     <row r="807" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I807" s="51"/>
+      <c r="I807" s="58"/>
     </row>
     <row r="808" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I808" s="51"/>
+      <c r="I808" s="58"/>
     </row>
     <row r="809" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I809" s="51"/>
+      <c r="I809" s="58"/>
     </row>
     <row r="810" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I810" s="51"/>
+      <c r="I810" s="58"/>
     </row>
     <row r="811" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I811" s="51"/>
+      <c r="I811" s="58"/>
     </row>
     <row r="812" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I812" s="51"/>
+      <c r="I812" s="58"/>
     </row>
     <row r="813" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I813" s="51"/>
+      <c r="I813" s="58"/>
     </row>
     <row r="814" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I814" s="51"/>
+      <c r="I814" s="58"/>
     </row>
     <row r="815" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I815" s="51"/>
+      <c r="I815" s="58"/>
     </row>
     <row r="816" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I816" s="51"/>
+      <c r="I816" s="58"/>
     </row>
     <row r="817" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I817" s="51"/>
+      <c r="I817" s="58"/>
     </row>
     <row r="818" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I818" s="51"/>
+      <c r="I818" s="58"/>
     </row>
     <row r="819" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I819" s="51"/>
+      <c r="I819" s="58"/>
     </row>
     <row r="820" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I820" s="51"/>
+      <c r="I820" s="58"/>
     </row>
     <row r="821" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I821" s="51"/>
+      <c r="I821" s="58"/>
     </row>
     <row r="822" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I822" s="51"/>
+      <c r="I822" s="58"/>
     </row>
     <row r="823" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I823" s="51"/>
+      <c r="I823" s="58"/>
     </row>
     <row r="824" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I824" s="51"/>
+      <c r="I824" s="58"/>
     </row>
     <row r="825" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I825" s="51"/>
+      <c r="I825" s="58"/>
     </row>
     <row r="826" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I826" s="51"/>
+      <c r="I826" s="58"/>
     </row>
     <row r="827" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I827" s="51"/>
+      <c r="I827" s="58"/>
     </row>
     <row r="828" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I828" s="51"/>
+      <c r="I828" s="58"/>
     </row>
     <row r="829" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I829" s="51"/>
+      <c r="I829" s="58"/>
     </row>
     <row r="830" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I830" s="51"/>
+      <c r="I830" s="58"/>
     </row>
     <row r="831" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I831" s="51"/>
+      <c r="I831" s="58"/>
     </row>
     <row r="832" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I832" s="51"/>
+      <c r="I832" s="58"/>
     </row>
     <row r="833" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I833" s="51"/>
+      <c r="I833" s="58"/>
     </row>
     <row r="834" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I834" s="51"/>
+      <c r="I834" s="58"/>
     </row>
     <row r="835" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I835" s="51"/>
+      <c r="I835" s="58"/>
     </row>
     <row r="836" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I836" s="51"/>
+      <c r="I836" s="58"/>
     </row>
     <row r="837" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I837" s="51"/>
+      <c r="I837" s="58"/>
     </row>
     <row r="838" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I838" s="51"/>
+      <c r="I838" s="58"/>
     </row>
     <row r="839" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I839" s="51"/>
+      <c r="I839" s="58"/>
     </row>
     <row r="840" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I840" s="51"/>
+      <c r="I840" s="58"/>
     </row>
     <row r="841" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I841" s="51"/>
+      <c r="I841" s="58"/>
     </row>
     <row r="842" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I842" s="51"/>
+      <c r="I842" s="58"/>
     </row>
     <row r="843" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I843" s="51"/>
+      <c r="I843" s="58"/>
     </row>
     <row r="844" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I844" s="51"/>
+      <c r="I844" s="58"/>
     </row>
     <row r="845" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I845" s="51"/>
+      <c r="I845" s="58"/>
     </row>
     <row r="846" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I846" s="51"/>
+      <c r="I846" s="58"/>
     </row>
     <row r="847" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I847" s="51"/>
+      <c r="I847" s="58"/>
     </row>
     <row r="848" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I848" s="51"/>
+      <c r="I848" s="58"/>
     </row>
     <row r="849" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I849" s="51"/>
+      <c r="I849" s="58"/>
     </row>
     <row r="850" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I850" s="51"/>
+      <c r="I850" s="58"/>
     </row>
     <row r="851" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I851" s="51"/>
+      <c r="I851" s="58"/>
     </row>
     <row r="852" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I852" s="51"/>
+      <c r="I852" s="58"/>
     </row>
     <row r="853" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I853" s="51"/>
+      <c r="I853" s="58"/>
     </row>
     <row r="854" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I854" s="51"/>
+      <c r="I854" s="58"/>
     </row>
     <row r="855" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I855" s="51"/>
+      <c r="I855" s="58"/>
     </row>
     <row r="856" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I856" s="51"/>
+      <c r="I856" s="58"/>
     </row>
     <row r="857" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I857" s="51"/>
+      <c r="I857" s="58"/>
     </row>
     <row r="858" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I858" s="51"/>
+      <c r="I858" s="58"/>
     </row>
     <row r="859" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I859" s="51"/>
+      <c r="I859" s="58"/>
     </row>
     <row r="860" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I860" s="51"/>
+      <c r="I860" s="58"/>
     </row>
     <row r="861" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I861" s="51"/>
+      <c r="I861" s="58"/>
     </row>
     <row r="862" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I862" s="51"/>
+      <c r="I862" s="58"/>
     </row>
     <row r="863" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I863" s="51"/>
+      <c r="I863" s="58"/>
     </row>
     <row r="864" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I864" s="51"/>
+      <c r="I864" s="58"/>
     </row>
     <row r="865" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I865" s="51"/>
+      <c r="I865" s="58"/>
     </row>
     <row r="866" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I866" s="51"/>
+      <c r="I866" s="58"/>
     </row>
     <row r="867" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I867" s="51"/>
+      <c r="I867" s="58"/>
     </row>
     <row r="868" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I868" s="51"/>
+      <c r="I868" s="58"/>
     </row>
     <row r="869" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I869" s="51"/>
+      <c r="I869" s="58"/>
     </row>
     <row r="870" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I870" s="51"/>
+      <c r="I870" s="58"/>
     </row>
     <row r="871" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I871" s="51"/>
+      <c r="I871" s="58"/>
     </row>
     <row r="872" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I872" s="51"/>
+      <c r="I872" s="58"/>
     </row>
     <row r="873" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I873" s="51"/>
+      <c r="I873" s="58"/>
     </row>
     <row r="874" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I874" s="51"/>
+      <c r="I874" s="58"/>
     </row>
     <row r="875" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I875" s="51"/>
+      <c r="I875" s="58"/>
     </row>
     <row r="876" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I876" s="51"/>
+      <c r="I876" s="58"/>
     </row>
     <row r="877" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I877" s="51"/>
+      <c r="I877" s="58"/>
     </row>
     <row r="878" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I878" s="51"/>
+      <c r="I878" s="58"/>
     </row>
     <row r="879" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I879" s="51"/>
+      <c r="I879" s="58"/>
     </row>
     <row r="880" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I880" s="51"/>
+      <c r="I880" s="58"/>
     </row>
     <row r="881" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I881" s="51"/>
+      <c r="I881" s="58"/>
     </row>
     <row r="882" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I882" s="51"/>
+      <c r="I882" s="58"/>
     </row>
     <row r="883" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I883" s="51"/>
+      <c r="I883" s="58"/>
     </row>
     <row r="884" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I884" s="51"/>
+      <c r="I884" s="58"/>
     </row>
     <row r="885" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I885" s="51"/>
+      <c r="I885" s="58"/>
     </row>
     <row r="886" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I886" s="51"/>
+      <c r="I886" s="58"/>
     </row>
     <row r="887" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I887" s="51"/>
+      <c r="I887" s="58"/>
     </row>
     <row r="888" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I888" s="51"/>
+      <c r="I888" s="58"/>
     </row>
     <row r="889" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I889" s="51"/>
+      <c r="I889" s="58"/>
     </row>
     <row r="890" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I890" s="51"/>
+      <c r="I890" s="58"/>
     </row>
     <row r="891" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I891" s="51"/>
+      <c r="I891" s="58"/>
     </row>
     <row r="892" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I892" s="51"/>
+      <c r="I892" s="58"/>
     </row>
     <row r="893" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I893" s="51"/>
+      <c r="I893" s="58"/>
     </row>
     <row r="894" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I894" s="51"/>
+      <c r="I894" s="58"/>
     </row>
     <row r="895" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I895" s="51"/>
+      <c r="I895" s="58"/>
     </row>
     <row r="896" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I896" s="51"/>
+      <c r="I896" s="58"/>
     </row>
     <row r="897" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I897" s="51"/>
+      <c r="I897" s="58"/>
     </row>
     <row r="898" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I898" s="51"/>
+      <c r="I898" s="58"/>
     </row>
     <row r="899" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I899" s="51"/>
+      <c r="I899" s="58"/>
     </row>
     <row r="900" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I900" s="51"/>
+      <c r="I900" s="58"/>
     </row>
     <row r="901" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I901" s="51"/>
+      <c r="I901" s="58"/>
     </row>
     <row r="902" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I902" s="51"/>
+      <c r="I902" s="58"/>
     </row>
     <row r="903" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I903" s="51"/>
+      <c r="I903" s="58"/>
     </row>
     <row r="904" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I904" s="51"/>
+      <c r="I904" s="58"/>
     </row>
     <row r="905" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I905" s="51"/>
+      <c r="I905" s="58"/>
     </row>
     <row r="906" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I906" s="51"/>
+      <c r="I906" s="58"/>
     </row>
     <row r="907" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I907" s="51"/>
+      <c r="I907" s="58"/>
     </row>
     <row r="908" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I908" s="51"/>
+      <c r="I908" s="58"/>
     </row>
     <row r="909" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I909" s="51"/>
+      <c r="I909" s="58"/>
     </row>
     <row r="910" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I910" s="51"/>
+      <c r="I910" s="58"/>
     </row>
     <row r="911" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I911" s="51"/>
+      <c r="I911" s="58"/>
     </row>
     <row r="912" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I912" s="51"/>
+      <c r="I912" s="58"/>
     </row>
     <row r="913" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I913" s="51"/>
+      <c r="I913" s="58"/>
     </row>
     <row r="914" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I914" s="51"/>
+      <c r="I914" s="58"/>
     </row>
     <row r="915" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I915" s="51"/>
+      <c r="I915" s="58"/>
     </row>
     <row r="916" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I916" s="51"/>
+      <c r="I916" s="58"/>
     </row>
     <row r="917" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I917" s="51"/>
+      <c r="I917" s="58"/>
     </row>
     <row r="918" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I918" s="51"/>
+      <c r="I918" s="58"/>
     </row>
     <row r="919" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I919" s="51"/>
+      <c r="I919" s="58"/>
     </row>
     <row r="920" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I920" s="51"/>
+      <c r="I920" s="58"/>
     </row>
     <row r="921" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I921" s="51"/>
+      <c r="I921" s="58"/>
     </row>
     <row r="922" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I922" s="51"/>
+      <c r="I922" s="58"/>
     </row>
     <row r="923" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I923" s="51"/>
+      <c r="I923" s="58"/>
     </row>
     <row r="924" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I924" s="51"/>
+      <c r="I924" s="58"/>
     </row>
     <row r="925" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I925" s="51"/>
+      <c r="I925" s="58"/>
     </row>
     <row r="926" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I926" s="51"/>
+      <c r="I926" s="58"/>
     </row>
     <row r="927" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I927" s="51"/>
+      <c r="I927" s="58"/>
     </row>
     <row r="928" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I928" s="51"/>
+      <c r="I928" s="58"/>
     </row>
     <row r="929" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I929" s="51"/>
+      <c r="I929" s="58"/>
     </row>
     <row r="930" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I930" s="51"/>
+      <c r="I930" s="58"/>
     </row>
     <row r="931" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I931" s="51"/>
+      <c r="I931" s="58"/>
     </row>
     <row r="932" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I932" s="51"/>
+      <c r="I932" s="58"/>
     </row>
     <row r="933" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I933" s="51"/>
+      <c r="I933" s="58"/>
     </row>
     <row r="934" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I934" s="51"/>
+      <c r="I934" s="58"/>
     </row>
     <row r="935" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I935" s="51"/>
+      <c r="I935" s="58"/>
     </row>
     <row r="936" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I936" s="51"/>
+      <c r="I936" s="58"/>
     </row>
     <row r="937" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I937" s="51"/>
+      <c r="I937" s="58"/>
     </row>
     <row r="938" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I938" s="51"/>
+      <c r="I938" s="58"/>
     </row>
     <row r="939" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I939" s="51"/>
+      <c r="I939" s="58"/>
     </row>
     <row r="940" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I940" s="51"/>
+      <c r="I940" s="58"/>
     </row>
     <row r="941" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I941" s="51"/>
+      <c r="I941" s="58"/>
     </row>
     <row r="942" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I942" s="51"/>
+      <c r="I942" s="58"/>
     </row>
     <row r="943" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I943" s="51"/>
+      <c r="I943" s="58"/>
     </row>
     <row r="944" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I944" s="51"/>
+      <c r="I944" s="58"/>
     </row>
     <row r="945" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I945" s="51"/>
+      <c r="I945" s="58"/>
     </row>
     <row r="946" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I946" s="51"/>
+      <c r="I946" s="58"/>
     </row>
     <row r="947" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I947" s="51"/>
+      <c r="I947" s="58"/>
     </row>
     <row r="948" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I948" s="51"/>
+      <c r="I948" s="58"/>
     </row>
     <row r="949" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I949" s="51"/>
+      <c r="I949" s="58"/>
     </row>
     <row r="950" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I950" s="51"/>
+      <c r="I950" s="58"/>
     </row>
     <row r="951" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I951" s="51"/>
+      <c r="I951" s="58"/>
     </row>
     <row r="952" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I952" s="51"/>
+      <c r="I952" s="58"/>
     </row>
     <row r="953" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I953" s="51"/>
+      <c r="I953" s="58"/>
     </row>
     <row r="954" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I954" s="51"/>
+      <c r="I954" s="58"/>
     </row>
     <row r="955" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I955" s="51"/>
+      <c r="I955" s="58"/>
     </row>
     <row r="956" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I956" s="51"/>
+      <c r="I956" s="58"/>
     </row>
     <row r="957" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I957" s="51"/>
+      <c r="I957" s="58"/>
     </row>
     <row r="958" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I958" s="51"/>
+      <c r="I958" s="58"/>
     </row>
     <row r="959" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I959" s="51"/>
+      <c r="I959" s="58"/>
     </row>
     <row r="960" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I960" s="51"/>
+      <c r="I960" s="58"/>
     </row>
     <row r="961" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I961" s="51"/>
+      <c r="I961" s="58"/>
     </row>
     <row r="962" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I962" s="51"/>
+      <c r="I962" s="58"/>
     </row>
     <row r="963" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I963" s="51"/>
+      <c r="I963" s="58"/>
     </row>
     <row r="964" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I964" s="51"/>
+      <c r="I964" s="58"/>
     </row>
     <row r="965" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I965" s="51"/>
+      <c r="I965" s="58"/>
     </row>
     <row r="966" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I966" s="51"/>
+      <c r="I966" s="58"/>
     </row>
     <row r="967" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I967" s="51"/>
+      <c r="I967" s="58"/>
     </row>
     <row r="968" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I968" s="51"/>
+      <c r="I968" s="58"/>
     </row>
     <row r="969" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I969" s="51"/>
+      <c r="I969" s="58"/>
     </row>
     <row r="970" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I970" s="51"/>
+      <c r="I970" s="58"/>
     </row>
     <row r="971" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I971" s="51"/>
+      <c r="I971" s="58"/>
     </row>
     <row r="972" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I972" s="51"/>
+      <c r="I972" s="58"/>
     </row>
     <row r="973" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I973" s="51"/>
+      <c r="I973" s="58"/>
     </row>
     <row r="974" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I974" s="51"/>
+      <c r="I974" s="58"/>
     </row>
     <row r="975" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I975" s="51"/>
+      <c r="I975" s="58"/>
     </row>
     <row r="976" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I976" s="51"/>
+      <c r="I976" s="58"/>
     </row>
     <row r="977" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I977" s="51"/>
+      <c r="I977" s="58"/>
     </row>
     <row r="978" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I978" s="51"/>
+      <c r="I978" s="58"/>
     </row>
     <row r="979" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I979" s="51"/>
+      <c r="I979" s="58"/>
     </row>
     <row r="980" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I980" s="51"/>
+      <c r="I980" s="58"/>
     </row>
     <row r="981" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I981" s="51"/>
+      <c r="I981" s="58"/>
     </row>
     <row r="982" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I982" s="51"/>
+      <c r="I982" s="58"/>
     </row>
     <row r="983" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I983" s="51"/>
+      <c r="I983" s="58"/>
     </row>
     <row r="984" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I984" s="51"/>
+      <c r="I984" s="58"/>
     </row>
     <row r="985" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I985" s="51"/>
+      <c r="I985" s="58"/>
     </row>
     <row r="986" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I986" s="51"/>
+      <c r="I986" s="58"/>
     </row>
     <row r="987" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I987" s="51"/>
+      <c r="I987" s="58"/>
     </row>
     <row r="988" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I988" s="51"/>
+      <c r="I988" s="58"/>
     </row>
     <row r="989" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I989" s="51"/>
+      <c r="I989" s="58"/>
     </row>
     <row r="990" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I990" s="51"/>
+      <c r="I990" s="58"/>
     </row>
     <row r="991" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I991" s="51"/>
+      <c r="I991" s="58"/>
     </row>
     <row r="992" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I992" s="51"/>
+      <c r="I992" s="58"/>
     </row>
     <row r="993" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I993" s="51"/>
+      <c r="I993" s="58"/>
     </row>
     <row r="994" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I994" s="51"/>
+      <c r="I994" s="58"/>
     </row>
     <row r="995" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I995" s="51"/>
+      <c r="I995" s="58"/>
     </row>
     <row r="996" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I996" s="51"/>
+      <c r="I996" s="58"/>
     </row>
     <row r="997" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I997" s="51"/>
+      <c r="I997" s="58"/>
     </row>
     <row r="998" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I998" s="51"/>
+      <c r="I998" s="58"/>
     </row>
     <row r="999" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I999" s="51"/>
+      <c r="I999" s="58"/>
     </row>
     <row r="1000" ht="14.25" customHeight="1" spans="9:9">
-      <c r="I1000" s="51"/>
+      <c r="I1000" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10848,7 +10426,7 @@
   <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -10866,29 +10444,29 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:26">
       <c r="A1" s="11" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="7" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="Z1" s="2"/>
     </row>
@@ -10897,20 +10475,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
@@ -10918,20 +10496,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:7">
@@ -10939,20 +10517,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:7">
@@ -10960,20 +10538,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="15" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:7">
@@ -10981,20 +10559,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:7">
@@ -11002,20 +10580,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="15" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:7">
@@ -11023,20 +10601,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="15" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:7">
@@ -11044,20 +10622,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="15" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:7">
@@ -11065,20 +10643,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="15" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:7">
@@ -11086,20 +10664,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="15" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:7">
@@ -11107,20 +10685,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="15" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:7">
@@ -11128,20 +10706,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="15" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:7">
@@ -11149,20 +10727,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="15" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:7">
@@ -11170,20 +10748,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="15" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:7">
@@ -11191,20 +10769,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="15" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:7">
@@ -11212,20 +10790,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="15" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:7">
@@ -11233,20 +10811,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="15" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:7">
@@ -11254,20 +10832,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="15" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:7">
@@ -11275,20 +10853,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="15" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:7">
@@ -11296,20 +10874,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="15" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:7">
@@ -11317,20 +10895,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:7">
@@ -11338,20 +10916,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="15" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:7">
@@ -11359,20 +10937,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="15" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:7">
@@ -11380,20 +10958,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="15" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:7">
@@ -11401,20 +10979,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="15" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:7">
@@ -11422,20 +11000,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="15" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:7">
@@ -11443,20 +11021,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="15" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:7">
@@ -11464,20 +11042,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="15" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:7">
@@ -11485,20 +11063,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="15" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:7">
@@ -11506,20 +11084,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="20" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:7">
@@ -11527,20 +11105,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="20" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:7">
@@ -11548,20 +11126,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="20" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:7">
@@ -11569,20 +11147,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="20" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:7">
@@ -11590,20 +11168,20 @@
         <v>34</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="20" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:7">
@@ -11611,20 +11189,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="20" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:7">
@@ -11632,20 +11210,20 @@
         <v>36</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="20" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:7">
@@ -11653,20 +11231,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="20" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1"/>
@@ -11905,17 +11483,17 @@
     <row r="272" ht="14.25" customHeight="1"/>
     <row r="273" ht="14.25" customHeight="1" spans="4:4">
       <c r="D273" s="8" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="274" ht="14.25" customHeight="1" spans="4:4">
       <c r="D274" s="8" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="275" ht="14.25" customHeight="1" spans="4:4">
       <c r="D275" s="8" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="276" ht="14.25" customHeight="1"/>
@@ -12703,27 +12281,27 @@
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="7" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="Z1" s="2"/>
     </row>
@@ -13140,17 +12718,17 @@
     <row r="272" ht="14.25" customHeight="1"/>
     <row r="273" ht="14.25" customHeight="1" spans="4:4">
       <c r="D273" s="8" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="274" ht="14.25" customHeight="1" spans="4:4">
       <c r="D274" s="8" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="275" ht="14.25" customHeight="1" spans="4:4">
       <c r="D275" s="8" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="276" ht="14.25" customHeight="1"/>
@@ -13915,27 +13493,27 @@
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="7" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="Z1" s="2"/>
     </row>
@@ -13947,7 +13525,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -13959,7 +13537,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -13971,7 +13549,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -13983,7 +13561,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -13995,7 +13573,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -14007,7 +13585,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -14019,7 +13597,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -14031,7 +13609,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -14043,7 +13621,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -14055,7 +13633,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -14067,7 +13645,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -14079,7 +13657,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -14091,7 +13669,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -14103,7 +13681,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -14115,7 +13693,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -14127,7 +13705,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F17" s="6"/>
     </row>
@@ -14139,7 +13717,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F18" s="6"/>
     </row>
@@ -14151,7 +13729,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -14163,7 +13741,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -14175,7 +13753,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F21" s="6"/>
     </row>
@@ -14432,17 +14010,17 @@
     <row r="272" ht="14.25" customHeight="1"/>
     <row r="273" ht="14.25" customHeight="1" spans="4:4">
       <c r="D273" s="8" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="274" ht="14.25" customHeight="1" spans="4:4">
       <c r="D274" s="8" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="275" ht="14.25" customHeight="1" spans="4:4">
       <c r="D275" s="8" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="276" ht="14.25" customHeight="1"/>
@@ -15207,27 +14785,27 @@
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="7" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="Z1" s="2"/>
     </row>
@@ -15239,7 +14817,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -15251,7 +14829,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -15263,7 +14841,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -15275,7 +14853,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -15287,7 +14865,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -15299,7 +14877,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -15311,7 +14889,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -15323,7 +14901,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -15335,7 +14913,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -15347,7 +14925,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -15359,7 +14937,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -15371,7 +14949,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -15383,7 +14961,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -15395,7 +14973,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -15407,7 +14985,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -15419,7 +14997,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F17" s="6"/>
     </row>
@@ -15431,7 +15009,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F18" s="6"/>
     </row>
@@ -15443,7 +15021,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -15455,7 +15033,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -15467,7 +15045,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F21" s="6"/>
     </row>
@@ -15724,17 +15302,17 @@
     <row r="272" ht="14.25" customHeight="1"/>
     <row r="273" ht="14.25" customHeight="1" spans="4:4">
       <c r="D273" s="8" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="274" ht="14.25" customHeight="1" spans="4:4">
       <c r="D274" s="8" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="275" ht="14.25" customHeight="1" spans="4:4">
       <c r="D275" s="8" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="276" ht="14.25" customHeight="1"/>
